--- a/RequirementAnalysist_ATM_EzharMahesa.xlsx
+++ b/RequirementAnalysist_ATM_EzharMahesa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SMKN 10\Documents\ezharmahesa-XIIPRL\11_PTS_ATM_EzharMahesa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C523757-F9DD-45AF-B6F3-59C811FDE42F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8DA77D5-2670-488B-BEA3-FCD3BA0FA2FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{17968DD5-7229-4084-A8C5-DD7AC3114287}"/>
   </bookViews>
